--- a/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.07594943896774</v>
+        <v>93.45413405050651</v>
       </c>
       <c r="D2" t="n">
-        <v>5.14288289138936</v>
+        <v>5.230275089822248</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.79089168799891</v>
+        <v>91.62500288904157</v>
       </c>
       <c r="D3" t="n">
-        <v>6.350442953323928</v>
+        <v>5.39779076868995</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.94311207344333</v>
+        <v>89.69425463118257</v>
       </c>
       <c r="D4" t="n">
-        <v>5.771957211638659</v>
+        <v>5.393920713102784</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.67995381043291</v>
+        <v>89.35384305969154</v>
       </c>
       <c r="D5" t="n">
-        <v>5.239764107957101</v>
+        <v>5.237641022499785</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.22713091585366</v>
+        <v>88.20276409007887</v>
       </c>
       <c r="D6" t="n">
-        <v>5.387792985299996</v>
+        <v>5.261289871166301</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.33201905107127</v>
+        <v>87.62995626206752</v>
       </c>
       <c r="D7" t="n">
-        <v>6.856047669749262</v>
+        <v>5.392275139612745</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.20685695041102</v>
+        <v>87.77186946043156</v>
       </c>
       <c r="D8" t="n">
-        <v>5.41614124499807</v>
+        <v>5.423169295742148</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.90700347279294</v>
+        <v>86.45399409881148</v>
       </c>
       <c r="D9" t="n">
-        <v>5.987199348571658</v>
+        <v>4.565656212829975</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.09478441446932</v>
+        <v>84.4565473230921</v>
       </c>
       <c r="D10" t="n">
-        <v>5.974830138733711</v>
+        <v>5.772259404270899</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.38971809681171</v>
+        <v>82.84810456524512</v>
       </c>
       <c r="D11" t="n">
-        <v>7.052945018969627</v>
+        <v>5.374195098605769</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.14726529994542</v>
+        <v>81.97557864488046</v>
       </c>
       <c r="D12" t="n">
-        <v>6.044669614862082</v>
+        <v>6.23614712280628</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.83352801075539</v>
+        <v>81.44698049648076</v>
       </c>
       <c r="D13" t="n">
-        <v>5.524771419962491</v>
+        <v>6.056396780855139</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.76692333932986</v>
+        <v>79.87192403665595</v>
       </c>
       <c r="D14" t="n">
-        <v>6.576225907035973</v>
+        <v>6.503583951097853</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.99386146888509</v>
+        <v>78.57311145975694</v>
       </c>
       <c r="D15" t="n">
-        <v>5.528299793533103</v>
+        <v>5.628061481260045</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.80824642691681</v>
+        <v>76.99870711358074</v>
       </c>
       <c r="D16" t="n">
-        <v>6.146918948579076</v>
+        <v>5.730378137420519</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.40497638769995</v>
+        <v>76.13319605247926</v>
       </c>
       <c r="D17" t="n">
-        <v>6.480372705122879</v>
+        <v>5.553388564350888</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.75193140445961</v>
+        <v>75.94782931752694</v>
       </c>
       <c r="D18" t="n">
-        <v>5.279776164829369</v>
+        <v>5.004265905171734</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.4804953560547</v>
+        <v>75.15757167024154</v>
       </c>
       <c r="D19" t="n">
-        <v>5.754072757874021</v>
+        <v>5.635876579629912</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.37614353943096</v>
+        <v>74.32328572782586</v>
       </c>
       <c r="D20" t="n">
-        <v>5.76591789164884</v>
+        <v>5.895935939092359</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.18407341977984</v>
+        <v>73.31238153094034</v>
       </c>
       <c r="D21" t="n">
-        <v>6.067666864165591</v>
+        <v>5.525122258898034</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.77682938164446</v>
+        <v>70.76869956487302</v>
       </c>
       <c r="D22" t="n">
-        <v>5.644270691341835</v>
+        <v>5.469947913115929</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.16459862674962</v>
+        <v>70.01467237237635</v>
       </c>
       <c r="D23" t="n">
-        <v>6.031584299051192</v>
+        <v>4.984218618446421</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.59526633743906</v>
+        <v>70.2286737034422</v>
       </c>
       <c r="D24" t="n">
-        <v>5.933632466657784</v>
+        <v>5.63016822618285</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.63094428265318</v>
+        <v>67.58057689058867</v>
       </c>
       <c r="D25" t="n">
-        <v>6.070072067525222</v>
+        <v>5.138179071435631</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.07622832074577</v>
+        <v>67.55532312410298</v>
       </c>
       <c r="D26" t="n">
-        <v>5.973729891883178</v>
+        <v>5.148979414459875</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.5471477184314</v>
+        <v>66.61658966902591</v>
       </c>
       <c r="D27" t="n">
-        <v>5.919928790593383</v>
+        <v>4.936088127248113</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.43146057871577</v>
+        <v>65.01417744941287</v>
       </c>
       <c r="D28" t="n">
-        <v>5.060625004094252</v>
+        <v>5.485797816330259</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.47859246559877</v>
+        <v>64.03218725877427</v>
       </c>
       <c r="D29" t="n">
-        <v>5.481040594675116</v>
+        <v>5.176895227073985</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.74461063961338</v>
+        <v>62.72492329622229</v>
       </c>
       <c r="D30" t="n">
-        <v>6.080753615501196</v>
+        <v>5.240384127574484</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.55378958211668</v>
+        <v>61.52634687085687</v>
       </c>
       <c r="D31" t="n">
-        <v>5.784077562892473</v>
+        <v>5.318563623025266</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.12384912316958</v>
+        <v>60.73501699523877</v>
       </c>
       <c r="D32" t="n">
-        <v>5.850731273566811</v>
+        <v>5.635728996202349</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.82421024672162</v>
+        <v>59.33407536807568</v>
       </c>
       <c r="D33" t="n">
-        <v>6.070834378481685</v>
+        <v>5.401321314983053</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.83365709496473</v>
+        <v>58.82276011565569</v>
       </c>
       <c r="D34" t="n">
-        <v>5.250544545958084</v>
+        <v>5.707602657336182</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.07716853378676</v>
+        <v>58.65773784079443</v>
       </c>
       <c r="D35" t="n">
-        <v>5.823302658588465</v>
+        <v>4.290556642893594</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.68160386324436</v>
+        <v>57.05719397006041</v>
       </c>
       <c r="D36" t="n">
-        <v>5.538621381280074</v>
+        <v>4.824216135295864</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.64371284440592</v>
+        <v>57.43513128818315</v>
       </c>
       <c r="D37" t="n">
-        <v>5.591179536758118</v>
+        <v>5.674816099301521</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.39946125800047</v>
+        <v>55.36765800075959</v>
       </c>
       <c r="D38" t="n">
-        <v>5.724911707635486</v>
+        <v>6.017619046307105</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.79348748486411</v>
+        <v>53.81221618141157</v>
       </c>
       <c r="D39" t="n">
-        <v>5.123554915054719</v>
+        <v>5.860062511626332</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.07160793449273</v>
+        <v>52.02653618841831</v>
       </c>
       <c r="D40" t="n">
-        <v>5.280559275323596</v>
+        <v>4.975397315081064</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.92259915712754</v>
+        <v>51.72548445948252</v>
       </c>
       <c r="D41" t="n">
-        <v>5.855980488159568</v>
+        <v>4.967311357839505</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.64261606059264</v>
+        <v>50.70852282425643</v>
       </c>
       <c r="D42" t="n">
-        <v>5.432753839119247</v>
+        <v>5.892432059801811</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.18759258594644</v>
+        <v>49.49491671363791</v>
       </c>
       <c r="D43" t="n">
-        <v>5.377552698939502</v>
+        <v>5.23239208543199</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.14378140799776</v>
+        <v>47.64172277175053</v>
       </c>
       <c r="D44" t="n">
-        <v>5.622277857509288</v>
+        <v>5.399141854020898</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.20660088217797</v>
+        <v>47.88613488881514</v>
       </c>
       <c r="D45" t="n">
-        <v>5.966082176243479</v>
+        <v>6.287609546357469</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.29957215560506</v>
+        <v>45.55840921505728</v>
       </c>
       <c r="D46" t="n">
-        <v>5.883907714324828</v>
+        <v>5.124262948768737</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.38147863790536</v>
+        <v>45.53842928008297</v>
       </c>
       <c r="D47" t="n">
-        <v>6.135964925872598</v>
+        <v>4.778362010717947</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.00724525811876</v>
+        <v>43.79760327360385</v>
       </c>
       <c r="D48" t="n">
-        <v>5.627678955797631</v>
+        <v>5.416709110868718</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.282911380177</v>
+        <v>43.92086843084085</v>
       </c>
       <c r="D49" t="n">
-        <v>5.336554418075769</v>
+        <v>5.630917379755952</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.72537854691966</v>
+        <v>42.02568386918211</v>
       </c>
       <c r="D50" t="n">
-        <v>5.434284050556111</v>
+        <v>5.36118924584235</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.50154535145386</v>
+        <v>40.3240294310049</v>
       </c>
       <c r="D51" t="n">
-        <v>5.655023868107811</v>
+        <v>5.356527134198774</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.4767367336155</v>
+        <v>39.68909442325062</v>
       </c>
       <c r="D52" t="n">
-        <v>6.307802536242878</v>
+        <v>5.789634376800672</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.48200423620029</v>
+        <v>38.88369113271652</v>
       </c>
       <c r="D53" t="n">
-        <v>6.285570583444443</v>
+        <v>5.631784115905909</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.13895140447069</v>
+        <v>37.83636658019866</v>
       </c>
       <c r="D54" t="n">
-        <v>5.963391777871013</v>
+        <v>4.938733147965538</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.04537725001136</v>
+        <v>36.77485476093454</v>
       </c>
       <c r="D55" t="n">
-        <v>5.873837638368811</v>
+        <v>5.946137219981047</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.78450583069828</v>
+        <v>36.44735461678788</v>
       </c>
       <c r="D56" t="n">
-        <v>5.208786020607659</v>
+        <v>5.061955983889144</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.61030967376162</v>
+        <v>35.65814821193479</v>
       </c>
       <c r="D57" t="n">
-        <v>5.724591398897414</v>
+        <v>5.010228150949968</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.59784232199749</v>
+        <v>34.45818905113703</v>
       </c>
       <c r="D58" t="n">
-        <v>5.468561850686944</v>
+        <v>4.795491349766085</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.14383619016822</v>
+        <v>32.91716960456936</v>
       </c>
       <c r="D59" t="n">
-        <v>4.902078543007899</v>
+        <v>5.573090423759295</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.90418518882187</v>
+        <v>33.72525625284564</v>
       </c>
       <c r="D60" t="n">
-        <v>4.944407259918689</v>
+        <v>5.118750321953399</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.74730891556223</v>
+        <v>31.01042957306846</v>
       </c>
       <c r="D61" t="n">
-        <v>4.902933531847093</v>
+        <v>5.464144543511429</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.61551566414147</v>
+        <v>29.7793043022739</v>
       </c>
       <c r="D62" t="n">
-        <v>6.032421917294307</v>
+        <v>5.936753755354585</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.63839244843684</v>
+        <v>28.71306488725173</v>
       </c>
       <c r="D63" t="n">
-        <v>5.714354837016841</v>
+        <v>5.513452893032809</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.5491373182049</v>
+        <v>27.35835067086139</v>
       </c>
       <c r="D64" t="n">
-        <v>5.67788985157938</v>
+        <v>5.664884985023238</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.44865515970796</v>
+        <v>26.93998962774301</v>
       </c>
       <c r="D65" t="n">
-        <v>4.899632755620488</v>
+        <v>5.35711472317101</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.57763506127334</v>
+        <v>25.94236665121319</v>
       </c>
       <c r="D66" t="n">
-        <v>5.402789677230283</v>
+        <v>5.381476420582938</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.07040019673925</v>
+        <v>24.34434770842628</v>
       </c>
       <c r="D67" t="n">
-        <v>5.320340161340979</v>
+        <v>5.155268193041517</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.69659914796001</v>
+        <v>23.89714419696564</v>
       </c>
       <c r="D68" t="n">
-        <v>5.275021958958016</v>
+        <v>5.120311152357254</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.67350713922237</v>
+        <v>23.83896819168271</v>
       </c>
       <c r="D69" t="n">
-        <v>6.0479096641162</v>
+        <v>5.268630269661069</v>
       </c>
     </row>
   </sheetData>
